--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>21 Feb -- 27 Feb 2021</t>
+  </si>
+  <si>
+    <t>28 Feb -- 06 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -551,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>0.74</v>
@@ -638,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -678,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -698,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -738,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -778,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -798,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -818,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -838,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -858,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -878,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -898,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -918,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -938,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -998,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1018,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1038,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1058,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1078,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1098,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1118,7 +1121,7 @@
         <v>9.01</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1138,7 +1141,7 @@
         <v>1.29</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1158,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1178,7 +1181,7 @@
         <v>24.67</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1198,7 +1201,7 @@
         <v>45.03</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1218,7 +1221,7 @@
         <v>47.39</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1238,7 +1241,7 @@
         <v>61.73</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1258,7 +1261,7 @@
         <v>35.47</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1278,7 +1281,7 @@
         <v>57.98</v>
       </c>
       <c r="F35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1298,7 +1301,7 @@
         <v>70.67</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1318,7 +1321,7 @@
         <v>79.45</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1338,7 +1341,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1358,7 +1361,7 @@
         <v>87.83</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1378,7 +1381,7 @@
         <v>105.96</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J40">
         <v>105.96</v>
@@ -1398,7 +1401,7 @@
         <v>75.44</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1412,7 +1415,7 @@
         <v>74.36</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1426,7 +1429,7 @@
         <v>70.88</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1440,7 +1443,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1454,7 +1457,7 @@
         <v>71.75</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1468,7 +1471,7 @@
         <v>59.18</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1482,7 +1485,7 @@
         <v>53.35</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1502,7 +1505,7 @@
         <v>105.96</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J48">
         <v>105.96</v>
@@ -1522,7 +1525,7 @@
         <v>75.44</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1536,7 +1539,7 @@
         <v>74.36</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1550,7 +1553,7 @@
         <v>70.88</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1564,7 +1567,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1578,7 +1581,7 @@
         <v>71.75</v>
       </c>
       <c r="F53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1592,7 +1595,7 @@
         <v>59.18</v>
       </c>
       <c r="F54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1606,7 +1609,119 @@
         <v>53.35</v>
       </c>
       <c r="F55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56">
+        <v>75.44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57">
+        <v>74.36</v>
+      </c>
+      <c r="F57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>70.88</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="F59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>71.75</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61">
+        <v>59.18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62">
+        <v>53.35</v>
+      </c>
+      <c r="F62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" t="s">
         <v>59</v>
+      </c>
+      <c r="D63">
+        <v>80.2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="63">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -55,6 +55,9 @@
     <t>2021-01-09</t>
   </si>
   <si>
+    <t>2021-01-16</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -194,6 +197,9 @@
   </si>
   <si>
     <t>28 Feb -- 06 Mar 2021</t>
+  </si>
+  <si>
+    <t>07 Mar -- 13 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -554,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,7 +606,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>106.71</v>
@@ -612,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>0.74</v>
@@ -629,7 +635,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>167.14</v>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -649,7 +655,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>159</v>
@@ -661,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +675,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>162.71</v>
@@ -681,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -689,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>139.57</v>
@@ -701,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -709,7 +715,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>95.14</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -729,7 +735,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>99</v>
@@ -741,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -749,7 +755,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>98.70999999999999</v>
@@ -761,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -769,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>47.57</v>
@@ -781,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -789,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>40.43</v>
@@ -801,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,7 +815,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>15.71</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,7 +835,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>22.29</v>
@@ -841,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -849,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>12.29</v>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -869,7 +875,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>10.57</v>
@@ -881,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -889,7 +895,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>5.29</v>
@@ -901,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -909,7 +915,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>8.140000000000001</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -929,7 +935,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>5.43</v>
@@ -941,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -949,7 +955,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>6.86</v>
@@ -961,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -969,7 +975,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>6.43</v>
@@ -981,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -989,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>6.29</v>
@@ -1001,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1009,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>4.43</v>
@@ -1021,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1029,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1041,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1049,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1061,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1069,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>7.29</v>
@@ -1081,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1089,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1101,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1109,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <v>24.71</v>
@@ -1121,7 +1127,7 @@
         <v>9.01</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1129,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>17.29</v>
@@ -1141,7 +1147,7 @@
         <v>1.29</v>
       </c>
       <c r="F28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1149,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>26.71</v>
@@ -1161,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1169,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C30">
         <v>31.14</v>
@@ -1181,7 +1187,7 @@
         <v>24.67</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1189,7 +1195,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31">
         <v>51.43</v>
@@ -1201,7 +1207,7 @@
         <v>45.03</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1209,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C32">
         <v>57.14</v>
@@ -1221,7 +1227,7 @@
         <v>47.39</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>72.56999999999999</v>
@@ -1241,7 +1247,7 @@
         <v>61.73</v>
       </c>
       <c r="F33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1249,7 +1255,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C34">
         <v>76.86</v>
@@ -1261,7 +1267,7 @@
         <v>35.47</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1269,7 +1275,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>87.70999999999999</v>
@@ -1281,7 +1287,7 @@
         <v>57.98</v>
       </c>
       <c r="F35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1289,7 +1295,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36">
         <v>108.57</v>
@@ -1301,7 +1307,7 @@
         <v>70.67</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1309,7 +1315,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C37">
         <v>114.86</v>
@@ -1321,7 +1327,7 @@
         <v>79.45</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1329,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>94.70999999999999</v>
@@ -1341,7 +1347,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1349,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C39">
         <v>124.71</v>
@@ -1361,7 +1367,7 @@
         <v>87.83</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1369,7 +1375,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C40">
         <v>166</v>
@@ -1381,7 +1387,7 @@
         <v>105.96</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J40">
         <v>105.96</v>
@@ -1395,13 +1401,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>145.43</v>
       </c>
       <c r="D41">
         <v>75.44</v>
       </c>
+      <c r="E41">
+        <v>69.98</v>
+      </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="J41">
+        <v>87.97</v>
+      </c>
+      <c r="K41">
+        <v>55.98</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1409,13 +1427,13 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D42">
         <v>74.36</v>
       </c>
       <c r="F42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1423,13 +1441,13 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>70.88</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1437,13 +1455,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
         <v>73.95999999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1451,13 +1469,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>71.75</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1465,13 +1483,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D46">
         <v>59.18</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1479,13 +1497,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D47">
         <v>53.35</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1493,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48">
         <v>166</v>
@@ -1505,223 +1523,359 @@
         <v>105.96</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J48">
-        <v>105.96</v>
+        <v>93.97</v>
       </c>
       <c r="K48">
-        <v>63.83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>145.43</v>
       </c>
       <c r="D49">
         <v>75.44</v>
       </c>
+      <c r="E49">
+        <v>69.98</v>
+      </c>
       <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J49">
+        <v>87.97</v>
+      </c>
+      <c r="K49">
+        <v>55.98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50">
         <v>74.36</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D51">
         <v>70.88</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D52">
         <v>73.95999999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53">
         <v>71.75</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54">
         <v>59.18</v>
       </c>
       <c r="F54" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D55">
         <v>53.35</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <v>145.43</v>
       </c>
       <c r="D56">
         <v>75.44</v>
       </c>
+      <c r="E56">
+        <v>69.98</v>
+      </c>
       <c r="F56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="J56">
+        <v>84.37</v>
+      </c>
+      <c r="K56">
+        <v>54.41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>74.36</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D58">
         <v>70.88</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D59">
         <v>73.95999999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D60">
         <v>71.75</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D61">
         <v>59.18</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D62">
         <v>53.35</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D63">
         <v>80.2</v>
       </c>
       <c r="F63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64">
+        <v>74.36</v>
+      </c>
+      <c r="F64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>70.88</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>73.95999999999999</v>
+      </c>
+      <c r="F66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67">
+        <v>71.75</v>
+      </c>
+      <c r="F67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>13</v>
+      </c>
+      <c r="B68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68">
+        <v>59.18</v>
+      </c>
+      <c r="F68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <v>53.35</v>
+      </c>
+      <c r="F69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
         <v>60</v>
+      </c>
+      <c r="D70">
+        <v>80.2</v>
+      </c>
+      <c r="F70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71">
+        <v>81.8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -58,6 +58,9 @@
     <t>2021-01-16</t>
   </si>
   <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -200,6 +203,9 @@
   </si>
   <si>
     <t>07 Mar -- 13 Mar 2021</t>
+  </si>
+  <si>
+    <t>14 Mar -- 20 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -560,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -606,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>106.71</v>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>0.74</v>
@@ -635,7 +641,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>167.14</v>
@@ -647,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>159</v>
@@ -667,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -675,7 +681,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>162.71</v>
@@ -687,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -695,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>139.57</v>
@@ -707,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -715,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>95.14</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -735,7 +741,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>99</v>
@@ -747,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -755,7 +761,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>98.70999999999999</v>
@@ -767,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -775,7 +781,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>47.57</v>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -795,7 +801,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>40.43</v>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>15.71</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -835,7 +841,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>22.29</v>
@@ -847,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -855,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>12.29</v>
@@ -867,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -875,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15">
         <v>10.57</v>
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -895,7 +901,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>5.29</v>
@@ -907,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -915,7 +921,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17">
         <v>8.140000000000001</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -935,7 +941,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18">
         <v>5.43</v>
@@ -947,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -955,7 +961,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>6.86</v>
@@ -967,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -975,7 +981,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>6.43</v>
@@ -987,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -995,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21">
         <v>6.29</v>
@@ -1007,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1015,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>4.43</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1035,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1047,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1055,7 +1061,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1067,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1075,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25">
         <v>7.29</v>
@@ -1087,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1095,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1107,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1115,7 +1121,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>24.71</v>
@@ -1127,7 +1133,7 @@
         <v>9.01</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1135,7 +1141,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>17.29</v>
@@ -1147,7 +1153,7 @@
         <v>1.29</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1155,7 +1161,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29">
         <v>26.71</v>
@@ -1167,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1175,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>31.14</v>
@@ -1187,7 +1193,7 @@
         <v>24.67</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1195,7 +1201,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C31">
         <v>51.43</v>
@@ -1207,7 +1213,7 @@
         <v>45.03</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>57.14</v>
@@ -1227,7 +1233,7 @@
         <v>47.39</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1235,7 +1241,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33">
         <v>72.56999999999999</v>
@@ -1247,7 +1253,7 @@
         <v>61.73</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1255,7 +1261,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>76.86</v>
@@ -1267,7 +1273,7 @@
         <v>35.47</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1275,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>87.70999999999999</v>
@@ -1287,7 +1293,7 @@
         <v>57.98</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1295,7 +1301,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36">
         <v>108.57</v>
@@ -1307,7 +1313,7 @@
         <v>70.67</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1315,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>114.86</v>
@@ -1327,7 +1333,7 @@
         <v>79.45</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1335,7 +1341,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38">
         <v>94.70999999999999</v>
@@ -1347,7 +1353,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39">
         <v>124.71</v>
@@ -1367,7 +1373,7 @@
         <v>87.83</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1375,25 +1381,25 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D40">
         <v>60.04</v>
       </c>
       <c r="E40">
-        <v>105.96</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J40">
-        <v>105.96</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="K40">
-        <v>63.83</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1401,25 +1407,25 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D41">
         <v>75.44</v>
       </c>
       <c r="E41">
-        <v>69.98</v>
+        <v>66.56</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J41">
-        <v>87.97</v>
+        <v>79.69</v>
       </c>
       <c r="K41">
-        <v>55.98</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1427,13 +1433,25 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C42">
+        <v>144.86</v>
       </c>
       <c r="D42">
         <v>74.36</v>
       </c>
+      <c r="E42">
+        <v>70.5</v>
+      </c>
       <c r="F42" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J42">
+        <v>76.62</v>
+      </c>
+      <c r="K42">
+        <v>52.09</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1441,13 +1459,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C43">
+        <v>133.43</v>
       </c>
       <c r="D43">
         <v>70.88</v>
       </c>
+      <c r="E43">
+        <v>62.55</v>
+      </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J43">
+        <v>73.11</v>
+      </c>
+      <c r="K43">
+        <v>50.79</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1455,13 +1485,13 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44">
         <v>73.95999999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1469,13 +1499,13 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45">
         <v>71.75</v>
       </c>
       <c r="F45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1483,13 +1513,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46">
         <v>59.18</v>
       </c>
       <c r="F46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1497,13 +1527,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D47">
         <v>53.35</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1511,25 +1541,25 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>166</v>
+        <v>152.86</v>
       </c>
       <c r="D48">
         <v>60.04</v>
       </c>
       <c r="E48">
-        <v>105.96</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J48">
-        <v>93.97</v>
+        <v>77.05</v>
       </c>
       <c r="K48">
-        <v>58.59</v>
+        <v>52.77</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1537,25 +1567,25 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D49">
         <v>75.44</v>
       </c>
       <c r="E49">
-        <v>69.98</v>
+        <v>66.56</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J49">
-        <v>87.97</v>
+        <v>75.3</v>
       </c>
       <c r="K49">
-        <v>55.98</v>
+        <v>51.79</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1563,13 +1593,25 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>144.86</v>
       </c>
       <c r="D50">
         <v>74.36</v>
       </c>
+      <c r="E50">
+        <v>70.5</v>
+      </c>
       <c r="F50" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J50">
+        <v>74.61</v>
+      </c>
+      <c r="K50">
+        <v>51.34</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1577,13 +1619,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C51">
+        <v>133.43</v>
       </c>
       <c r="D51">
         <v>70.88</v>
       </c>
+      <c r="E51">
+        <v>62.55</v>
+      </c>
       <c r="F51" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J51">
+        <v>73.11</v>
+      </c>
+      <c r="K51">
+        <v>50.79</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1591,13 +1645,13 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D52">
         <v>73.95999999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1605,13 +1659,13 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D53">
         <v>71.75</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1619,13 +1673,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D54">
         <v>59.18</v>
       </c>
       <c r="F54" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1633,13 +1687,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D55">
         <v>53.35</v>
       </c>
       <c r="F55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1647,25 +1701,25 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56">
-        <v>145.43</v>
+        <v>142</v>
       </c>
       <c r="D56">
         <v>75.44</v>
       </c>
       <c r="E56">
-        <v>69.98</v>
+        <v>66.56</v>
       </c>
       <c r="F56" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J56">
-        <v>84.37</v>
+        <v>72.38</v>
       </c>
       <c r="K56">
-        <v>54.41</v>
+        <v>50.35</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1673,13 +1727,25 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>144.86</v>
       </c>
       <c r="D57">
         <v>74.36</v>
       </c>
+      <c r="E57">
+        <v>70.5</v>
+      </c>
       <c r="F57" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J57">
+        <v>72.19</v>
+      </c>
+      <c r="K57">
+        <v>50.18</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1687,13 +1753,25 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>133.43</v>
       </c>
       <c r="D58">
         <v>70.88</v>
       </c>
+      <c r="E58">
+        <v>62.55</v>
+      </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="J58">
+        <v>71.31</v>
+      </c>
+      <c r="K58">
+        <v>49.88</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1701,13 +1779,13 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D59">
         <v>73.95999999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1715,13 +1793,13 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D60">
         <v>71.75</v>
       </c>
       <c r="F60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1729,13 +1807,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61">
         <v>59.18</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1743,13 +1821,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D62">
         <v>53.35</v>
       </c>
       <c r="F62" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1757,13 +1835,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D63">
         <v>80.2</v>
       </c>
       <c r="F63" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1771,111 +1849,259 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="C64">
+        <v>144.86</v>
       </c>
       <c r="D64">
         <v>74.36</v>
       </c>
+      <c r="E64">
+        <v>70.5</v>
+      </c>
       <c r="F64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="J64">
+        <v>71.25</v>
+      </c>
+      <c r="K64">
+        <v>49.78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C65">
+        <v>133.43</v>
       </c>
       <c r="D65">
         <v>70.88</v>
       </c>
+      <c r="E65">
+        <v>62.55</v>
+      </c>
       <c r="F65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>64</v>
+      </c>
+      <c r="J65">
+        <v>70.58</v>
+      </c>
+      <c r="K65">
+        <v>49.56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D66">
         <v>73.95999999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D67">
         <v>71.75</v>
       </c>
       <c r="F67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" t="s">
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D68">
         <v>59.18</v>
       </c>
       <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" t="s">
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D69">
         <v>53.35</v>
       </c>
       <c r="F69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" t="s">
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D70">
         <v>80.2</v>
       </c>
       <c r="F70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" t="s">
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D71">
         <v>81.8</v>
       </c>
       <c r="F71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72">
+        <v>133.43</v>
+      </c>
+      <c r="D72">
+        <v>59.14</v>
+      </c>
+      <c r="E72">
+        <v>74.29000000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>64</v>
+      </c>
+      <c r="J72">
+        <v>70.84</v>
+      </c>
+      <c r="K72">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="D73">
+        <v>62.26</v>
+      </c>
+      <c r="F73" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74">
+        <v>60.13</v>
+      </c>
+      <c r="F74" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75">
+        <v>47.15</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="D76">
+        <v>43.28</v>
+      </c>
+      <c r="F76" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77">
+        <v>71.02</v>
+      </c>
+      <c r="F77" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78" t="s">
         <v>62</v>
+      </c>
+      <c r="D78">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="F78" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="F79" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>14 Mar -- 20 Mar 2021</t>
+  </si>
+  <si>
+    <t>21 Mar -- 27 Mar 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,7 +627,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>0.74</v>
@@ -653,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -673,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -693,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -733,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -753,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -773,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -793,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -813,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -833,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -853,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -873,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -913,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -953,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -973,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -993,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1033,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1053,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1073,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1093,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1113,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1133,7 +1136,7 @@
         <v>9.01</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1153,7 +1156,7 @@
         <v>1.29</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1173,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1193,7 +1196,7 @@
         <v>24.67</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1213,7 +1216,7 @@
         <v>45.03</v>
       </c>
       <c r="F31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1233,7 +1236,7 @@
         <v>47.39</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1253,7 +1256,7 @@
         <v>61.73</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1273,7 +1276,7 @@
         <v>35.47</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1293,7 +1296,7 @@
         <v>57.98</v>
       </c>
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1313,7 +1316,7 @@
         <v>70.67</v>
       </c>
       <c r="F36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1333,7 +1336,7 @@
         <v>79.45</v>
       </c>
       <c r="F37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1353,7 +1356,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1373,7 +1376,7 @@
         <v>87.83</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1393,7 +1396,7 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J40">
         <v>92.81999999999999</v>
@@ -1419,7 +1422,7 @@
         <v>66.56</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J41">
         <v>79.69</v>
@@ -1445,7 +1448,7 @@
         <v>70.5</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J42">
         <v>76.62</v>
@@ -1471,7 +1474,7 @@
         <v>62.55</v>
       </c>
       <c r="F43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J43">
         <v>73.11</v>
@@ -1491,7 +1494,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1505,7 +1508,7 @@
         <v>71.75</v>
       </c>
       <c r="F45" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1519,7 +1522,7 @@
         <v>59.18</v>
       </c>
       <c r="F46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1533,7 +1536,7 @@
         <v>53.35</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1553,7 +1556,7 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J48">
         <v>77.05</v>
@@ -1579,7 +1582,7 @@
         <v>66.56</v>
       </c>
       <c r="F49" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J49">
         <v>75.3</v>
@@ -1605,7 +1608,7 @@
         <v>70.5</v>
       </c>
       <c r="F50" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J50">
         <v>74.61</v>
@@ -1631,7 +1634,7 @@
         <v>62.55</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J51">
         <v>73.11</v>
@@ -1651,7 +1654,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F52" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1665,7 +1668,7 @@
         <v>71.75</v>
       </c>
       <c r="F53" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1679,7 +1682,7 @@
         <v>59.18</v>
       </c>
       <c r="F54" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1693,7 +1696,7 @@
         <v>53.35</v>
       </c>
       <c r="F55" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1713,7 +1716,7 @@
         <v>66.56</v>
       </c>
       <c r="F56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J56">
         <v>72.38</v>
@@ -1739,7 +1742,7 @@
         <v>70.5</v>
       </c>
       <c r="F57" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J57">
         <v>72.19</v>
@@ -1765,7 +1768,7 @@
         <v>62.55</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J58">
         <v>71.31</v>
@@ -1785,7 +1788,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1799,7 +1802,7 @@
         <v>71.75</v>
       </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1813,7 +1816,7 @@
         <v>59.18</v>
       </c>
       <c r="F61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1827,7 +1830,7 @@
         <v>53.35</v>
       </c>
       <c r="F62" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1841,7 +1844,7 @@
         <v>80.2</v>
       </c>
       <c r="F63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1861,7 +1864,7 @@
         <v>70.5</v>
       </c>
       <c r="F64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J64">
         <v>71.25</v>
@@ -1887,7 +1890,7 @@
         <v>62.55</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J65">
         <v>70.58</v>
@@ -1907,7 +1910,7 @@
         <v>73.95999999999999</v>
       </c>
       <c r="F66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1921,7 +1924,7 @@
         <v>71.75</v>
       </c>
       <c r="F67" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1935,7 +1938,7 @@
         <v>59.18</v>
       </c>
       <c r="F68" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1949,7 +1952,7 @@
         <v>53.35</v>
       </c>
       <c r="F69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1963,7 +1966,7 @@
         <v>80.2</v>
       </c>
       <c r="F70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1977,7 +1980,7 @@
         <v>81.8</v>
       </c>
       <c r="F71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1997,7 +2000,7 @@
         <v>74.29000000000001</v>
       </c>
       <c r="F72" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J72">
         <v>70.84</v>
@@ -2017,7 +2020,7 @@
         <v>62.26</v>
       </c>
       <c r="F73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2031,7 +2034,7 @@
         <v>60.13</v>
       </c>
       <c r="F74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2045,7 +2048,7 @@
         <v>47.15</v>
       </c>
       <c r="F75" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2059,7 +2062,7 @@
         <v>43.28</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2073,7 +2076,7 @@
         <v>71.02</v>
       </c>
       <c r="F77" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2087,7 +2090,7 @@
         <v>72.15000000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2101,7 +2104,119 @@
         <v>86.84999999999999</v>
       </c>
       <c r="F79" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>62.26</v>
+      </c>
+      <c r="F80" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81">
+        <v>60.13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82">
+        <v>47.15</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83">
+        <v>43.28</v>
+      </c>
+      <c r="F83" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84">
+        <v>71.02</v>
+      </c>
+      <c r="F84" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s">
         <v>64</v>
+      </c>
+      <c r="D87">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F87" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="68">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -61,6 +61,9 @@
     <t>2021-01-30</t>
   </si>
   <si>
+    <t>2021-02-13</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -209,6 +212,9 @@
   </si>
   <si>
     <t>21 Mar -- 27 Mar 2021</t>
+  </si>
+  <si>
+    <t>28 Mar -- 03 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -569,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -615,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>106.71</v>
@@ -627,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>0.74</v>
@@ -644,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>167.14</v>
@@ -656,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -664,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>159</v>
@@ -676,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -684,7 +690,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>162.71</v>
@@ -696,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -704,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>139.57</v>
@@ -716,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -724,7 +730,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>95.14</v>
@@ -736,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -744,7 +750,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8">
         <v>99</v>
@@ -756,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -764,7 +770,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>98.70999999999999</v>
@@ -776,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -784,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>47.57</v>
@@ -796,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -804,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>40.43</v>
@@ -816,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -824,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>15.71</v>
@@ -836,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -844,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>22.29</v>
@@ -856,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -864,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14">
         <v>12.29</v>
@@ -876,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -884,7 +890,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15">
         <v>10.57</v>
@@ -896,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -904,7 +910,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16">
         <v>5.29</v>
@@ -916,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -924,7 +930,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17">
         <v>8.140000000000001</v>
@@ -936,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -944,7 +950,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18">
         <v>5.43</v>
@@ -956,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -964,7 +970,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>6.86</v>
@@ -976,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -984,7 +990,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>6.43</v>
@@ -996,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1004,7 +1010,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>6.29</v>
@@ -1016,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1024,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>4.43</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1044,7 +1050,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1056,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1064,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1076,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1084,7 +1090,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25">
         <v>7.29</v>
@@ -1096,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1104,7 +1110,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1116,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1124,7 +1130,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>24.71</v>
@@ -1136,7 +1142,7 @@
         <v>9.01</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1144,7 +1150,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C28">
         <v>17.29</v>
@@ -1156,7 +1162,7 @@
         <v>1.29</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1164,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>26.71</v>
@@ -1176,7 +1182,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1184,7 +1190,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C30">
         <v>31.14</v>
@@ -1196,7 +1202,7 @@
         <v>24.67</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1204,7 +1210,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>51.43</v>
@@ -1216,7 +1222,7 @@
         <v>45.03</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1224,7 +1230,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32">
         <v>57.14</v>
@@ -1236,7 +1242,7 @@
         <v>47.39</v>
       </c>
       <c r="F32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1244,7 +1250,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>72.56999999999999</v>
@@ -1256,7 +1262,7 @@
         <v>61.73</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1264,7 +1270,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C34">
         <v>76.86</v>
@@ -1276,7 +1282,7 @@
         <v>35.47</v>
       </c>
       <c r="F34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1284,7 +1290,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C35">
         <v>87.70999999999999</v>
@@ -1296,7 +1302,7 @@
         <v>57.98</v>
       </c>
       <c r="F35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1304,7 +1310,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C36">
         <v>108.57</v>
@@ -1316,7 +1322,7 @@
         <v>70.67</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1324,7 +1330,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37">
         <v>114.86</v>
@@ -1336,7 +1342,7 @@
         <v>79.45</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1344,7 +1350,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C38">
         <v>94.70999999999999</v>
@@ -1356,7 +1362,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1364,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39">
         <v>124.71</v>
@@ -1376,7 +1382,7 @@
         <v>87.83</v>
       </c>
       <c r="F39" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1384,7 +1390,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C40">
         <v>152.86</v>
@@ -1396,7 +1402,7 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J40">
         <v>92.81999999999999</v>
@@ -1410,7 +1416,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C41">
         <v>142</v>
@@ -1422,7 +1428,7 @@
         <v>66.56</v>
       </c>
       <c r="F41" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J41">
         <v>79.69</v>
@@ -1436,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42">
         <v>144.86</v>
@@ -1448,7 +1454,7 @@
         <v>70.5</v>
       </c>
       <c r="F42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J42">
         <v>76.62</v>
@@ -1462,25 +1468,25 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D43">
         <v>70.88</v>
       </c>
       <c r="E43">
-        <v>62.55</v>
+        <v>67.12</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J43">
-        <v>73.11</v>
+        <v>74.25</v>
       </c>
       <c r="K43">
-        <v>50.79</v>
+        <v>51.22</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1488,13 +1494,25 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C44">
+        <v>106</v>
       </c>
       <c r="D44">
         <v>73.95999999999999</v>
       </c>
+      <c r="E44">
+        <v>32.04</v>
+      </c>
       <c r="F44" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J44">
+        <v>65.81</v>
+      </c>
+      <c r="K44">
+        <v>47.03</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1502,13 +1520,25 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C45">
+        <v>76.86</v>
       </c>
       <c r="D45">
         <v>71.75</v>
       </c>
+      <c r="E45">
+        <v>5.1</v>
+      </c>
       <c r="F45" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J45">
+        <v>55.69</v>
+      </c>
+      <c r="K45">
+        <v>40.29</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -1516,13 +1546,13 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D46">
         <v>59.18</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1530,13 +1560,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>53.35</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1544,7 +1574,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>152.86</v>
@@ -1556,13 +1586,13 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J48">
-        <v>77.05</v>
+        <v>60.99</v>
       </c>
       <c r="K48">
-        <v>52.77</v>
+        <v>43.21</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1570,7 +1600,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
         <v>142</v>
@@ -1582,13 +1612,13 @@
         <v>66.56</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J49">
-        <v>75.3</v>
+        <v>61.69</v>
       </c>
       <c r="K49">
-        <v>51.79</v>
+        <v>43.67</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1596,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1608,13 +1638,13 @@
         <v>70.5</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J50">
-        <v>74.61</v>
+        <v>62.67</v>
       </c>
       <c r="K50">
-        <v>51.34</v>
+        <v>44.23</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1622,25 +1652,25 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C51">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D51">
         <v>70.88</v>
       </c>
       <c r="E51">
-        <v>62.55</v>
+        <v>67.12</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J51">
-        <v>73.11</v>
+        <v>63.11</v>
       </c>
       <c r="K51">
-        <v>50.79</v>
+        <v>44.67</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1648,13 +1678,25 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C52">
+        <v>106</v>
       </c>
       <c r="D52">
         <v>73.95999999999999</v>
       </c>
+      <c r="E52">
+        <v>32.04</v>
+      </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J52">
+        <v>60.29</v>
+      </c>
+      <c r="K52">
+        <v>43.35</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1662,13 +1704,25 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C53">
+        <v>76.86</v>
       </c>
       <c r="D53">
         <v>71.75</v>
       </c>
+      <c r="E53">
+        <v>5.1</v>
+      </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J53">
+        <v>55.69</v>
+      </c>
+      <c r="K53">
+        <v>40.29</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1676,13 +1730,13 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D54">
         <v>59.18</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1690,13 +1744,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D55">
         <v>53.35</v>
       </c>
       <c r="F55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1704,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56">
         <v>142</v>
@@ -1716,13 +1770,13 @@
         <v>66.56</v>
       </c>
       <c r="F56" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J56">
-        <v>72.38</v>
+        <v>56.53</v>
       </c>
       <c r="K56">
-        <v>50.35</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1730,7 +1784,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57">
         <v>144.86</v>
@@ -1742,13 +1796,13 @@
         <v>70.5</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J57">
-        <v>72.19</v>
+        <v>57.52</v>
       </c>
       <c r="K57">
-        <v>50.18</v>
+        <v>41.36</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1756,25 +1810,25 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D58">
         <v>70.88</v>
       </c>
       <c r="E58">
-        <v>62.55</v>
+        <v>67.12</v>
       </c>
       <c r="F58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J58">
-        <v>71.31</v>
+        <v>58.16</v>
       </c>
       <c r="K58">
-        <v>49.88</v>
+        <v>41.85</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1782,13 +1836,25 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>106</v>
       </c>
       <c r="D59">
         <v>73.95999999999999</v>
       </c>
+      <c r="E59">
+        <v>32.04</v>
+      </c>
       <c r="F59" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J59">
+        <v>56.53</v>
+      </c>
+      <c r="K59">
+        <v>41.12</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1796,13 +1862,25 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>76.86</v>
       </c>
       <c r="D60">
         <v>71.75</v>
       </c>
+      <c r="E60">
+        <v>5.1</v>
+      </c>
       <c r="F60" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J60">
+        <v>53.51</v>
+      </c>
+      <c r="K60">
+        <v>39.09</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1810,13 +1888,13 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D61">
         <v>59.18</v>
       </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1824,13 +1902,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D62">
         <v>53.35</v>
       </c>
       <c r="F62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1838,13 +1916,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D63">
         <v>80.2</v>
       </c>
       <c r="F63" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1852,7 +1930,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64">
         <v>144.86</v>
@@ -1864,13 +1942,13 @@
         <v>70.5</v>
       </c>
       <c r="F64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J64">
-        <v>71.25</v>
+        <v>54.45</v>
       </c>
       <c r="K64">
-        <v>49.78</v>
+        <v>39.63</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1878,25 +1956,25 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C65">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D65">
         <v>70.88</v>
       </c>
       <c r="E65">
-        <v>62.55</v>
+        <v>67.12</v>
       </c>
       <c r="F65" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J65">
-        <v>70.58</v>
+        <v>55.12</v>
       </c>
       <c r="K65">
-        <v>49.56</v>
+        <v>40.1</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1904,13 +1982,25 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C66">
+        <v>106</v>
       </c>
       <c r="D66">
         <v>73.95999999999999</v>
       </c>
+      <c r="E66">
+        <v>32.04</v>
+      </c>
       <c r="F66" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J66">
+        <v>53.96</v>
+      </c>
+      <c r="K66">
+        <v>39.61</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -1918,13 +2008,25 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C67">
+        <v>76.86</v>
       </c>
       <c r="D67">
         <v>71.75</v>
       </c>
+      <c r="E67">
+        <v>5.1</v>
+      </c>
       <c r="F67" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J67">
+        <v>51.64</v>
+      </c>
+      <c r="K67">
+        <v>38.04</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -1932,13 +2034,13 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68">
         <v>59.18</v>
       </c>
       <c r="F68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -1946,13 +2048,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D69">
         <v>53.35</v>
       </c>
       <c r="F69" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -1960,13 +2062,13 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D70">
         <v>80.2</v>
       </c>
       <c r="F70" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -1974,13 +2076,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D71">
         <v>81.8</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -1988,25 +2090,25 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C72">
-        <v>133.43</v>
+        <v>138</v>
       </c>
       <c r="D72">
         <v>59.14</v>
       </c>
       <c r="E72">
-        <v>74.29000000000001</v>
+        <v>78.86</v>
       </c>
       <c r="F72" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J72">
-        <v>70.84</v>
+        <v>52.87</v>
       </c>
       <c r="K72">
-        <v>49.99</v>
+        <v>38.91</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2014,13 +2116,25 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C73">
+        <v>106</v>
       </c>
       <c r="D73">
         <v>62.26</v>
       </c>
+      <c r="E73">
+        <v>43.74</v>
+      </c>
       <c r="F73" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J73">
+        <v>52.48</v>
+      </c>
+      <c r="K73">
+        <v>39.01</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2028,13 +2142,25 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C74">
+        <v>76.86</v>
       </c>
       <c r="D74">
         <v>60.13</v>
       </c>
+      <c r="E74">
+        <v>16.73</v>
+      </c>
       <c r="F74" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="J74">
+        <v>50.99</v>
+      </c>
+      <c r="K74">
+        <v>38.29</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2042,13 +2168,13 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D75">
         <v>47.15</v>
       </c>
       <c r="F75" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2056,13 +2182,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D76">
         <v>43.28</v>
       </c>
       <c r="F76" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2070,13 +2196,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D77">
         <v>71.02</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2084,13 +2210,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D78">
         <v>72.15000000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2098,13 +2224,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <v>86.84999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2112,111 +2238,259 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="C80">
+        <v>106</v>
       </c>
       <c r="D80">
         <v>62.26</v>
       </c>
+      <c r="E80">
+        <v>43.74</v>
+      </c>
       <c r="F80" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="J80">
+        <v>50.7</v>
+      </c>
+      <c r="K80">
+        <v>38.41</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" t="s">
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="C81">
+        <v>76.86</v>
       </c>
       <c r="D81">
         <v>60.13</v>
       </c>
+      <c r="E81">
+        <v>16.73</v>
+      </c>
       <c r="F81" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>67</v>
+      </c>
+      <c r="J81">
+        <v>49.39</v>
+      </c>
+      <c r="K81">
+        <v>37.77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" t="s">
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D82">
         <v>47.15</v>
       </c>
       <c r="F82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" t="s">
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D83">
         <v>43.28</v>
       </c>
       <c r="F83" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" t="s">
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D84">
         <v>71.02</v>
       </c>
       <c r="F84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" t="s">
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D85">
         <v>72.15000000000001</v>
       </c>
       <c r="F85" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" t="s">
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D86">
         <v>86.84999999999999</v>
       </c>
       <c r="F86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" t="s">
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D87">
         <v>91.90000000000001</v>
       </c>
       <c r="F87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88" t="s">
+        <v>15</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88">
+        <v>76.86</v>
+      </c>
+      <c r="D88">
+        <v>60.13</v>
+      </c>
+      <c r="E88">
+        <v>16.73</v>
+      </c>
+      <c r="F88" t="s">
+        <v>67</v>
+      </c>
+      <c r="J88">
+        <v>48.18</v>
+      </c>
+      <c r="K88">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89">
+        <v>47.15</v>
+      </c>
+      <c r="F89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B90" t="s">
+        <v>61</v>
+      </c>
+      <c r="D90">
+        <v>43.28</v>
+      </c>
+      <c r="F90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91" t="s">
+        <v>15</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D91">
+        <v>71.02</v>
+      </c>
+      <c r="F91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="F92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93" t="s">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D93">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="F93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" t="s">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
         <v>65</v>
+      </c>
+      <c r="D94">
+        <v>92.45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95" t="s">
+        <v>15</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95">
+        <v>99.3</v>
+      </c>
+      <c r="F95" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
+++ b/future_prediction/canada/Weekly-Deaths-Prediction r = 8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="71">
   <si>
     <t>the day the prediction is made</t>
   </si>
@@ -64,6 +64,9 @@
     <t>2021-02-13</t>
   </si>
   <si>
+    <t>2021-02-20</t>
+  </si>
+  <si>
     <t>12 Apr -- 18 Apr 2020</t>
   </si>
   <si>
@@ -215,6 +218,12 @@
   </si>
   <si>
     <t>28 Mar -- 03 Apr 2021</t>
+  </si>
+  <si>
+    <t>04 Apr -- 10 Apr 2021</t>
+  </si>
+  <si>
+    <t>11 Apr -- 17 Apr 2021</t>
   </si>
   <si>
     <t>KNN</t>
@@ -575,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +630,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2">
         <v>106.71</v>
@@ -633,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2">
         <v>0.74</v>
@@ -650,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>167.14</v>
@@ -662,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -670,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>159</v>
@@ -682,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -690,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>162.71</v>
@@ -702,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -710,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>139.57</v>
@@ -722,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -730,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>95.14</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -750,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8">
         <v>99</v>
@@ -762,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -770,7 +779,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>98.70999999999999</v>
@@ -782,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -790,7 +799,7 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>47.57</v>
@@ -802,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -810,7 +819,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>40.43</v>
@@ -822,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -830,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>15.71</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>22.29</v>
@@ -862,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -870,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14">
         <v>12.29</v>
@@ -882,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -890,7 +899,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15">
         <v>10.57</v>
@@ -902,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -910,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16">
         <v>5.29</v>
@@ -922,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -930,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>8.140000000000001</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -950,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>5.43</v>
@@ -962,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -970,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19">
         <v>6.86</v>
@@ -982,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -990,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>6.43</v>
@@ -1002,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1010,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>6.29</v>
@@ -1022,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1030,7 +1039,7 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22">
         <v>4.43</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1050,7 +1059,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1062,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1070,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -1082,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1090,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>7.29</v>
@@ -1102,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1110,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1122,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27">
         <v>24.71</v>
@@ -1142,7 +1151,7 @@
         <v>9.01</v>
       </c>
       <c r="F27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1150,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28">
         <v>17.29</v>
@@ -1162,7 +1171,7 @@
         <v>1.29</v>
       </c>
       <c r="F28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1170,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29">
         <v>26.71</v>
@@ -1182,7 +1191,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1190,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>31.14</v>
@@ -1202,7 +1211,7 @@
         <v>24.67</v>
       </c>
       <c r="F30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1210,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31">
         <v>51.43</v>
@@ -1222,7 +1231,7 @@
         <v>45.03</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1230,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C32">
         <v>57.14</v>
@@ -1242,7 +1251,7 @@
         <v>47.39</v>
       </c>
       <c r="F32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1250,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C33">
         <v>72.56999999999999</v>
@@ -1262,7 +1271,7 @@
         <v>61.73</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1270,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34">
         <v>76.86</v>
@@ -1282,7 +1291,7 @@
         <v>35.47</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1290,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C35">
         <v>87.70999999999999</v>
@@ -1302,7 +1311,7 @@
         <v>57.98</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1310,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36">
         <v>108.57</v>
@@ -1322,7 +1331,7 @@
         <v>70.67</v>
       </c>
       <c r="F36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1330,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37">
         <v>114.86</v>
@@ -1342,7 +1351,7 @@
         <v>79.45</v>
       </c>
       <c r="F37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1350,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38">
         <v>94.70999999999999</v>
@@ -1362,7 +1371,7 @@
         <v>67.43000000000001</v>
       </c>
       <c r="F38" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1370,7 +1379,7 @@
         <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39">
         <v>124.71</v>
@@ -1382,7 +1391,7 @@
         <v>87.83</v>
       </c>
       <c r="F39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1390,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C40">
         <v>152.86</v>
@@ -1402,7 +1411,7 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F40" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J40">
         <v>92.81999999999999</v>
@@ -1416,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41">
         <v>142</v>
@@ -1428,7 +1437,7 @@
         <v>66.56</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J41">
         <v>79.69</v>
@@ -1442,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C42">
         <v>144.86</v>
@@ -1454,7 +1463,7 @@
         <v>70.5</v>
       </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J42">
         <v>76.62</v>
@@ -1468,7 +1477,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43">
         <v>138</v>
@@ -1480,7 +1489,7 @@
         <v>67.12</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J43">
         <v>74.25</v>
@@ -1494,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>106</v>
@@ -1506,7 +1515,7 @@
         <v>32.04</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J44">
         <v>65.81</v>
@@ -1520,7 +1529,7 @@
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45">
         <v>76.86</v>
@@ -1532,7 +1541,7 @@
         <v>5.1</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J45">
         <v>55.69</v>
@@ -1546,13 +1555,25 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C46">
+        <v>56.14</v>
       </c>
       <c r="D46">
         <v>59.18</v>
       </c>
+      <c r="E46">
+        <v>3.04</v>
+      </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J46">
+        <v>48.17</v>
+      </c>
+      <c r="K46">
+        <v>35.31</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1560,13 +1581,13 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>53.35</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -1574,7 +1595,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48">
         <v>152.86</v>
@@ -1586,13 +1607,13 @@
         <v>92.81999999999999</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J48">
-        <v>60.99</v>
+        <v>53.75</v>
       </c>
       <c r="K48">
-        <v>43.21</v>
+        <v>38.49</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -1600,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49">
         <v>142</v>
@@ -1612,13 +1633,13 @@
         <v>66.56</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J49">
-        <v>61.69</v>
+        <v>55.17</v>
       </c>
       <c r="K49">
-        <v>43.67</v>
+        <v>39.42</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -1626,7 +1647,7 @@
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
         <v>144.86</v>
@@ -1638,13 +1659,13 @@
         <v>70.5</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J50">
-        <v>62.67</v>
+        <v>56.71</v>
       </c>
       <c r="K50">
-        <v>44.23</v>
+        <v>40.34</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -1652,7 +1673,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C51">
         <v>138</v>
@@ -1664,13 +1685,13 @@
         <v>67.12</v>
       </c>
       <c r="F51" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J51">
-        <v>63.11</v>
+        <v>57.65</v>
       </c>
       <c r="K51">
-        <v>44.67</v>
+        <v>41.1</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -1678,7 +1699,7 @@
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>106</v>
@@ -1690,13 +1711,13 @@
         <v>32.04</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J52">
-        <v>60.29</v>
+        <v>55.52</v>
       </c>
       <c r="K52">
-        <v>43.35</v>
+        <v>40.19</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -1704,7 +1725,7 @@
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53">
         <v>76.86</v>
@@ -1716,13 +1737,13 @@
         <v>5.1</v>
       </c>
       <c r="F53" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J53">
-        <v>55.69</v>
+        <v>51.64</v>
       </c>
       <c r="K53">
-        <v>40.29</v>
+        <v>37.61</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -1730,13 +1751,25 @@
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C54">
+        <v>56.14</v>
       </c>
       <c r="D54">
         <v>59.18</v>
       </c>
+      <c r="E54">
+        <v>3.04</v>
+      </c>
       <c r="F54" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J54">
+        <v>48.17</v>
+      </c>
+      <c r="K54">
+        <v>35.31</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -1744,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55">
         <v>53.35</v>
       </c>
       <c r="F55" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -1758,7 +1791,7 @@
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56">
         <v>142</v>
@@ -1770,13 +1803,13 @@
         <v>66.56</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>56.53</v>
+        <v>49.39</v>
       </c>
       <c r="K56">
-        <v>40.8</v>
+        <v>36.08</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -1784,7 +1817,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C57">
         <v>144.86</v>
@@ -1796,13 +1829,13 @@
         <v>70.5</v>
       </c>
       <c r="F57" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J57">
-        <v>57.52</v>
+        <v>50.71</v>
       </c>
       <c r="K57">
-        <v>41.36</v>
+        <v>36.87</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -1810,7 +1843,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58">
         <v>138</v>
@@ -1822,13 +1855,13 @@
         <v>67.12</v>
       </c>
       <c r="F58" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J58">
-        <v>58.16</v>
+        <v>51.68</v>
       </c>
       <c r="K58">
-        <v>41.85</v>
+        <v>37.56</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -1836,7 +1869,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>106</v>
@@ -1848,13 +1881,13 @@
         <v>32.04</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J59">
-        <v>56.53</v>
+        <v>50.59</v>
       </c>
       <c r="K59">
-        <v>41.12</v>
+        <v>37.15</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -1862,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C60">
         <v>76.86</v>
@@ -1874,13 +1907,13 @@
         <v>5.1</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J60">
-        <v>53.51</v>
+        <v>48.19</v>
       </c>
       <c r="K60">
-        <v>39.09</v>
+        <v>35.55</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -1888,13 +1921,25 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>56.14</v>
       </c>
       <c r="D61">
         <v>59.18</v>
       </c>
+      <c r="E61">
+        <v>3.04</v>
+      </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J61">
+        <v>45.94</v>
+      </c>
+      <c r="K61">
+        <v>34.04</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -1902,13 +1947,13 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62">
         <v>53.35</v>
       </c>
       <c r="F62" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -1916,13 +1961,13 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D63">
         <v>80.2</v>
       </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -1930,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="B64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C64">
         <v>144.86</v>
@@ -1942,13 +1987,13 @@
         <v>70.5</v>
       </c>
       <c r="F64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J64">
-        <v>54.45</v>
+        <v>47.11</v>
       </c>
       <c r="K64">
-        <v>39.63</v>
+        <v>34.74</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -1956,7 +2001,7 @@
         <v>13</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C65">
         <v>138</v>
@@ -1968,13 +2013,13 @@
         <v>67.12</v>
       </c>
       <c r="F65" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J65">
-        <v>55.12</v>
+        <v>48.02</v>
       </c>
       <c r="K65">
-        <v>40.1</v>
+        <v>35.37</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -1982,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>106</v>
@@ -1994,13 +2039,13 @@
         <v>32.04</v>
       </c>
       <c r="F66" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J66">
-        <v>53.96</v>
+        <v>47.32</v>
       </c>
       <c r="K66">
-        <v>39.61</v>
+        <v>35.15</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2008,7 +2053,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C67">
         <v>76.86</v>
@@ -2020,13 +2065,13 @@
         <v>5.1</v>
       </c>
       <c r="F67" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J67">
-        <v>51.64</v>
+        <v>45.56</v>
       </c>
       <c r="K67">
-        <v>38.04</v>
+        <v>33.96</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2034,13 +2079,25 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C68">
+        <v>56.14</v>
       </c>
       <c r="D68">
         <v>59.18</v>
       </c>
+      <c r="E68">
+        <v>3.04</v>
+      </c>
       <c r="F68" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J68">
+        <v>43.86</v>
+      </c>
+      <c r="K68">
+        <v>32.82</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2048,13 +2105,13 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D69">
         <v>53.35</v>
       </c>
       <c r="F69" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2062,13 +2119,13 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D70">
         <v>80.2</v>
       </c>
       <c r="F70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2076,13 +2133,13 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>81.8</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2090,7 +2147,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C72">
         <v>138</v>
@@ -2102,13 +2159,13 @@
         <v>78.86</v>
       </c>
       <c r="F72" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J72">
-        <v>52.87</v>
+        <v>45.21</v>
       </c>
       <c r="K72">
-        <v>38.91</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2116,7 +2173,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73">
         <v>106</v>
@@ -2128,13 +2185,13 @@
         <v>43.74</v>
       </c>
       <c r="F73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J73">
-        <v>52.48</v>
+        <v>45.15</v>
       </c>
       <c r="K73">
-        <v>39.01</v>
+        <v>34.03</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2142,7 +2199,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74">
         <v>76.86</v>
@@ -2154,13 +2211,13 @@
         <v>16.73</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J74">
-        <v>50.99</v>
+        <v>44.14</v>
       </c>
       <c r="K74">
-        <v>38.29</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -2168,13 +2225,25 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C75">
+        <v>56.14</v>
       </c>
       <c r="D75">
         <v>47.15</v>
       </c>
+      <c r="E75">
+        <v>8.99</v>
+      </c>
       <c r="F75" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J75">
+        <v>42.93</v>
+      </c>
+      <c r="K75">
+        <v>32.99</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -2182,13 +2251,13 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D76">
         <v>43.28</v>
       </c>
       <c r="F76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -2196,13 +2265,13 @@
         <v>14</v>
       </c>
       <c r="B77" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D77">
         <v>71.02</v>
       </c>
       <c r="F77" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -2210,13 +2279,13 @@
         <v>14</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D78">
         <v>72.15000000000001</v>
       </c>
       <c r="F78" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -2224,13 +2293,13 @@
         <v>14</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D79">
         <v>86.84999999999999</v>
       </c>
       <c r="F79" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -2238,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C80">
         <v>106</v>
@@ -2250,13 +2319,13 @@
         <v>43.74</v>
       </c>
       <c r="F80" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J80">
-        <v>50.7</v>
+        <v>42.95</v>
       </c>
       <c r="K80">
-        <v>38.41</v>
+        <v>33.26</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -2264,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C81">
         <v>76.86</v>
@@ -2276,13 +2345,13 @@
         <v>16.73</v>
       </c>
       <c r="F81" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J81">
-        <v>49.39</v>
+        <v>42.11</v>
       </c>
       <c r="K81">
-        <v>37.77</v>
+        <v>32.89</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -2290,13 +2359,25 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C82">
+        <v>56.14</v>
       </c>
       <c r="D82">
         <v>47.15</v>
       </c>
+      <c r="E82">
+        <v>8.99</v>
+      </c>
       <c r="F82" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J82">
+        <v>41.07</v>
+      </c>
+      <c r="K82">
+        <v>32.36</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -2304,13 +2385,13 @@
         <v>14</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D83">
         <v>43.28</v>
       </c>
       <c r="F83" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -2318,13 +2399,13 @@
         <v>14</v>
       </c>
       <c r="B84" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D84">
         <v>71.02</v>
       </c>
       <c r="F84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -2332,13 +2413,13 @@
         <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D85">
         <v>72.15000000000001</v>
       </c>
       <c r="F85" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -2346,13 +2427,13 @@
         <v>14</v>
       </c>
       <c r="B86" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D86">
         <v>86.84999999999999</v>
       </c>
       <c r="F86" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -2360,13 +2441,13 @@
         <v>14</v>
       </c>
       <c r="B87" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D87">
         <v>91.90000000000001</v>
       </c>
       <c r="F87" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -2374,7 +2455,7 @@
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C88">
         <v>76.86</v>
@@ -2386,13 +2467,13 @@
         <v>16.73</v>
       </c>
       <c r="F88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J88">
-        <v>48.18</v>
+        <v>40.33</v>
       </c>
       <c r="K88">
-        <v>37.17</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -2400,13 +2481,25 @@
         <v>15</v>
       </c>
       <c r="B89" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C89">
+        <v>56.14</v>
       </c>
       <c r="D89">
         <v>47.15</v>
       </c>
+      <c r="E89">
+        <v>8.99</v>
+      </c>
       <c r="F89" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="J89">
+        <v>39.41</v>
+      </c>
+      <c r="K89">
+        <v>31.57</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -2414,13 +2507,13 @@
         <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D90">
         <v>43.28</v>
       </c>
       <c r="F90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -2428,13 +2521,13 @@
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D91">
         <v>71.02</v>
       </c>
       <c r="F91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -2442,13 +2535,13 @@
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D92">
         <v>72.15000000000001</v>
       </c>
       <c r="F92" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -2456,13 +2549,13 @@
         <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D93">
         <v>86.84999999999999</v>
       </c>
       <c r="F93" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -2470,13 +2563,13 @@
         <v>15</v>
       </c>
       <c r="B94" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D94">
         <v>92.45</v>
       </c>
       <c r="F94" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -2484,13 +2577,125 @@
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D95">
         <v>99.3</v>
       </c>
       <c r="F95" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96">
+        <v>43.28</v>
+      </c>
+      <c r="F96" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>63</v>
+      </c>
+      <c r="D97">
+        <v>71.02</v>
+      </c>
+      <c r="F97" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>16</v>
+      </c>
+      <c r="B98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D98">
+        <v>72.15000000000001</v>
+      </c>
+      <c r="F98" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>16</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99">
+        <v>86.84999999999999</v>
+      </c>
+      <c r="F99" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>66</v>
+      </c>
+      <c r="D100">
+        <v>92.45</v>
+      </c>
+      <c r="F100" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>16</v>
+      </c>
+      <c r="B101" t="s">
         <v>67</v>
+      </c>
+      <c r="D101">
+        <v>99.3</v>
+      </c>
+      <c r="F101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>16</v>
+      </c>
+      <c r="B102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102">
+        <v>95.64</v>
+      </c>
+      <c r="F102" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>16</v>
+      </c>
+      <c r="B103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103">
+        <v>95.26000000000001</v>
+      </c>
+      <c r="F103" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
